--- a/data/MAIS_MILIONARIA.xlsx
+++ b/data/MAIS_MILIONARIA.xlsx
@@ -32525,7 +32525,7 @@
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-10-23T04:12:56+00:00</AtualizadoPeloTimerJobEm>
+    <AtualizadoPeloTimerJobEm xmlns="4455b8ba-124f-46d5-aaaa-9813efd83d1e">2025-10-24T04:12:55+00:00</AtualizadoPeloTimerJobEm>
   </documentManagement>
 </p:properties>
 </file>
